--- a/Code/Results/Cases/Case_4_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01437006437273</v>
+        <v>1.047755892524305</v>
       </c>
       <c r="D2">
-        <v>1.032619439167119</v>
+        <v>1.0521603800662</v>
       </c>
       <c r="E2">
-        <v>1.032685338140314</v>
+        <v>1.060573447651939</v>
       </c>
       <c r="F2">
-        <v>1.040653420260793</v>
+        <v>1.066268244441687</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049487508170597</v>
+        <v>1.040323915334692</v>
       </c>
       <c r="J2">
-        <v>1.036129302855189</v>
+        <v>1.052803269752584</v>
       </c>
       <c r="K2">
-        <v>1.043642295105252</v>
+        <v>1.05490988118869</v>
       </c>
       <c r="L2">
-        <v>1.043707347197019</v>
+        <v>1.0632998589796</v>
       </c>
       <c r="M2">
-        <v>1.051574016319744</v>
+        <v>1.068979250086863</v>
       </c>
       <c r="N2">
-        <v>1.037600725310955</v>
+        <v>1.054298371153855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019175423610096</v>
+        <v>1.048786105183069</v>
       </c>
       <c r="D3">
-        <v>1.036143048971389</v>
+        <v>1.052933811906198</v>
       </c>
       <c r="E3">
-        <v>1.03695354496838</v>
+        <v>1.06154080503325</v>
       </c>
       <c r="F3">
-        <v>1.044813727453617</v>
+        <v>1.067204813968297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050619265968809</v>
+        <v>1.040504152781486</v>
       </c>
       <c r="J3">
-        <v>1.039156654725103</v>
+        <v>1.053481687299104</v>
       </c>
       <c r="K3">
-        <v>1.04633345090627</v>
+        <v>1.055496204448358</v>
       </c>
       <c r="L3">
-        <v>1.04713446210051</v>
+        <v>1.064081282271395</v>
       </c>
       <c r="M3">
-        <v>1.054903603594407</v>
+        <v>1.069731077108201</v>
       </c>
       <c r="N3">
-        <v>1.040632376367747</v>
+        <v>1.054977752131107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022222067913576</v>
+        <v>1.049453273958411</v>
       </c>
       <c r="D4">
-        <v>1.038379410724457</v>
+        <v>1.05343456307037</v>
       </c>
       <c r="E4">
-        <v>1.039664981557902</v>
+        <v>1.062167578651376</v>
       </c>
       <c r="F4">
-        <v>1.047456003228127</v>
+        <v>1.067811515222576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051326624826561</v>
+        <v>1.040619581662674</v>
       </c>
       <c r="J4">
-        <v>1.041073920302546</v>
+        <v>1.05392061727131</v>
       </c>
       <c r="K4">
-        <v>1.048035686836357</v>
+        <v>1.055875222631369</v>
       </c>
       <c r="L4">
-        <v>1.049307141668045</v>
+        <v>1.064587120909269</v>
       </c>
       <c r="M4">
-        <v>1.057013524110652</v>
+        <v>1.070217607183708</v>
       </c>
       <c r="N4">
-        <v>1.042552364682223</v>
+        <v>1.05541730543422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023488411200844</v>
+        <v>1.04973388334357</v>
       </c>
       <c r="D5">
-        <v>1.039309464203461</v>
+        <v>1.053645146899111</v>
       </c>
       <c r="E5">
-        <v>1.040793235179266</v>
+        <v>1.062431271615628</v>
       </c>
       <c r="F5">
-        <v>1.048555321209386</v>
+        <v>1.068066733636945</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051618154227608</v>
+        <v>1.040667821000523</v>
       </c>
       <c r="J5">
-        <v>1.041870293059661</v>
+        <v>1.05410513032445</v>
       </c>
       <c r="K5">
-        <v>1.048742220851369</v>
+        <v>1.056034471934684</v>
       </c>
       <c r="L5">
-        <v>1.050210142761208</v>
+        <v>1.064799823773029</v>
       </c>
       <c r="M5">
-        <v>1.057890210756278</v>
+        <v>1.070422154894644</v>
       </c>
       <c r="N5">
-        <v>1.043349868379999</v>
+        <v>1.055602080517059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023700203136813</v>
+        <v>1.049781006596055</v>
       </c>
       <c r="D6">
-        <v>1.039465040731368</v>
+        <v>1.053680508806749</v>
       </c>
       <c r="E6">
-        <v>1.040982003696884</v>
+        <v>1.062475558365732</v>
       </c>
       <c r="F6">
-        <v>1.048739238989465</v>
+        <v>1.068109595351838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051666764303741</v>
+        <v>1.040675903756934</v>
       </c>
       <c r="J6">
-        <v>1.042003450970288</v>
+        <v>1.054136110087102</v>
       </c>
       <c r="K6">
-        <v>1.048860326094466</v>
+        <v>1.056061205294819</v>
       </c>
       <c r="L6">
-        <v>1.050361161113866</v>
+        <v>1.064835540326022</v>
       </c>
       <c r="M6">
-        <v>1.058036814482215</v>
+        <v>1.070456499941387</v>
       </c>
       <c r="N6">
-        <v>1.043483215390132</v>
+        <v>1.055633104274528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022239044981217</v>
+        <v>1.04945702295825</v>
       </c>
       <c r="D7">
-        <v>1.038391877447133</v>
+        <v>1.053437376635902</v>
       </c>
       <c r="E7">
-        <v>1.039680102502978</v>
+        <v>1.062171101355601</v>
       </c>
       <c r="F7">
-        <v>1.047470737008192</v>
+        <v>1.067814924831516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051330543050037</v>
+        <v>1.040620227367195</v>
       </c>
       <c r="J7">
-        <v>1.041084598960859</v>
+        <v>1.053923082796217</v>
       </c>
       <c r="K7">
-        <v>1.048045162919098</v>
+        <v>1.055877350882814</v>
       </c>
       <c r="L7">
-        <v>1.049319247995223</v>
+        <v>1.064589962866682</v>
       </c>
       <c r="M7">
-        <v>1.057025278567677</v>
+        <v>1.070220340320301</v>
       </c>
       <c r="N7">
-        <v>1.042563058505456</v>
+        <v>1.055419774460455</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016007393087792</v>
+        <v>1.04810394300343</v>
       </c>
       <c r="D8">
-        <v>1.033819505553633</v>
+        <v>1.052421704432181</v>
       </c>
       <c r="E8">
-        <v>1.034138493343049</v>
+        <v>1.06090019838156</v>
       </c>
       <c r="F8">
-        <v>1.04206996309388</v>
+        <v>1.066584621397005</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049875241801157</v>
+        <v>1.040385074959277</v>
       </c>
       <c r="J8">
-        <v>1.037161229834006</v>
+        <v>1.053032554349676</v>
       </c>
       <c r="K8">
-        <v>1.044560057265002</v>
+        <v>1.055108108433642</v>
       </c>
       <c r="L8">
-        <v>1.04487507095535</v>
+        <v>1.063563901544337</v>
       </c>
       <c r="M8">
-        <v>1.052708699579692</v>
+        <v>1.06923332309236</v>
       </c>
       <c r="N8">
-        <v>1.038634117744426</v>
+        <v>1.054527981361375</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004519418322237</v>
+        <v>1.045723899110219</v>
       </c>
       <c r="D9">
-        <v>1.025412097914918</v>
+        <v>1.050634225068721</v>
       </c>
       <c r="E9">
-        <v>1.023967359789866</v>
+        <v>1.058667098561658</v>
       </c>
       <c r="F9">
-        <v>1.03215288863783</v>
+        <v>1.064421913683467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04711331564387</v>
+        <v>1.039961560091639</v>
       </c>
       <c r="J9">
-        <v>1.029913587505807</v>
+        <v>1.051462968483635</v>
       </c>
       <c r="K9">
-        <v>1.038105909945448</v>
+        <v>1.053749791674845</v>
       </c>
       <c r="L9">
-        <v>1.036683193343304</v>
+        <v>1.061757464097659</v>
       </c>
       <c r="M9">
-        <v>1.044744990525442</v>
+        <v>1.067494480291669</v>
       </c>
       <c r="N9">
-        <v>1.031376182932805</v>
+        <v>1.05295616650337</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9964803927079203</v>
+        <v>1.044140097660557</v>
       </c>
       <c r="D10">
-        <v>1.019547838391283</v>
+        <v>1.04944416283365</v>
       </c>
       <c r="E10">
-        <v>1.016883399572237</v>
+        <v>1.057182725712136</v>
       </c>
       <c r="F10">
-        <v>1.025243543466677</v>
+        <v>1.062983701098078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045129835585798</v>
+        <v>1.039673093646718</v>
       </c>
       <c r="J10">
-        <v>1.024834352162906</v>
+        <v>1.050416379700191</v>
       </c>
       <c r="K10">
-        <v>1.033572897852681</v>
+        <v>1.05284240480785</v>
       </c>
       <c r="L10">
-        <v>1.03095436636739</v>
+        <v>1.060554309786541</v>
       </c>
       <c r="M10">
-        <v>1.039171500643342</v>
+        <v>1.06633558164056</v>
       </c>
       <c r="N10">
-        <v>1.026289734493121</v>
+        <v>1.051908091443809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9928995806574888</v>
+        <v>1.043454987030966</v>
       </c>
       <c r="D11">
-        <v>1.016941283851678</v>
+        <v>1.048929244055632</v>
       </c>
       <c r="E11">
-        <v>1.013736746807936</v>
+        <v>1.056541022690256</v>
       </c>
       <c r="F11">
-        <v>1.022174059263196</v>
+        <v>1.062361804957284</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044234953950125</v>
+        <v>1.039546737531743</v>
       </c>
       <c r="J11">
-        <v>1.02257075800426</v>
+        <v>1.04996315720868</v>
       </c>
       <c r="K11">
-        <v>1.03155063133779</v>
+        <v>1.052449069349509</v>
       </c>
       <c r="L11">
-        <v>1.0284041758963</v>
+        <v>1.060033611105493</v>
       </c>
       <c r="M11">
-        <v>1.036689579913846</v>
+        <v>1.065833855381651</v>
       </c>
       <c r="N11">
-        <v>1.024022925771131</v>
+        <v>1.051454225324373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9915536170465468</v>
+        <v>1.043200609914138</v>
       </c>
       <c r="D12">
-        <v>1.015962453830309</v>
+        <v>1.048738039383675</v>
       </c>
       <c r="E12">
-        <v>1.012555360712113</v>
+        <v>1.056302822864991</v>
       </c>
       <c r="F12">
-        <v>1.021021600572028</v>
+        <v>1.062130935214009</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043896932183515</v>
+        <v>1.039499586062644</v>
       </c>
       <c r="J12">
-        <v>1.021719795132869</v>
+        <v>1.049794804467278</v>
       </c>
       <c r="K12">
-        <v>1.030790097562629</v>
+        <v>1.052302903066845</v>
       </c>
       <c r="L12">
-        <v>1.027445909132481</v>
+        <v>1.059840242569095</v>
       </c>
       <c r="M12">
-        <v>1.035756845475459</v>
+        <v>1.065647505477849</v>
       </c>
       <c r="N12">
-        <v>1.023170754434856</v>
+        <v>1.051285633502769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9918430648671408</v>
+        <v>1.043255169979677</v>
       </c>
       <c r="D13">
-        <v>1.016172906573353</v>
+        <v>1.048779050743415</v>
       </c>
       <c r="E13">
-        <v>1.012809352597311</v>
+        <v>1.056353910404692</v>
       </c>
       <c r="F13">
-        <v>1.021269375006478</v>
+        <v>1.062180451650021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04396969700217</v>
+        <v>1.039509710034331</v>
       </c>
       <c r="J13">
-        <v>1.021902798058853</v>
+        <v>1.049830916950104</v>
       </c>
       <c r="K13">
-        <v>1.030953666297675</v>
+        <v>1.05233425911357</v>
       </c>
       <c r="L13">
-        <v>1.02765196838051</v>
+        <v>1.05988171885669</v>
       </c>
       <c r="M13">
-        <v>1.035957419702415</v>
+        <v>1.065687477536785</v>
       </c>
       <c r="N13">
-        <v>1.023354017245985</v>
+        <v>1.051321797269462</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9927886524132805</v>
+        <v>1.043433958025729</v>
       </c>
       <c r="D14">
-        <v>1.016860593696258</v>
+        <v>1.048913437806081</v>
       </c>
       <c r="E14">
-        <v>1.013639353733066</v>
+        <v>1.056521329804955</v>
       </c>
       <c r="F14">
-        <v>1.022079051781843</v>
+        <v>1.062342718530661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044207128944211</v>
+        <v>1.039542844404725</v>
       </c>
       <c r="J14">
-        <v>1.022500627553605</v>
+        <v>1.049949241231483</v>
       </c>
       <c r="K14">
-        <v>1.03148795927998</v>
+        <v>1.052436988499726</v>
       </c>
       <c r="L14">
-        <v>1.028325193298855</v>
+        <v>1.060017626337654</v>
       </c>
       <c r="M14">
-        <v>1.03661270414231</v>
+        <v>1.065818451358634</v>
       </c>
       <c r="N14">
-        <v>1.023952695727192</v>
+        <v>1.051440289584892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9933691267951505</v>
+        <v>1.043544128966275</v>
       </c>
       <c r="D15">
-        <v>1.017282874104477</v>
+        <v>1.048996245973292</v>
       </c>
       <c r="E15">
-        <v>1.014149057045352</v>
+        <v>1.056624503288999</v>
       </c>
       <c r="F15">
-        <v>1.022576268427799</v>
+        <v>1.062442713792227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044352666946294</v>
+        <v>1.03956323081717</v>
       </c>
       <c r="J15">
-        <v>1.022867607435012</v>
+        <v>1.050022143987704</v>
       </c>
       <c r="K15">
-        <v>1.031815898885326</v>
+        <v>1.052500275009989</v>
       </c>
       <c r="L15">
-        <v>1.028738512697443</v>
+        <v>1.060101369030163</v>
       </c>
       <c r="M15">
-        <v>1.037014993567402</v>
+        <v>1.065899150476992</v>
       </c>
       <c r="N15">
-        <v>1.024320196762123</v>
+        <v>1.05151329587139</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9967158611673308</v>
+        <v>1.044185580683685</v>
       </c>
       <c r="D16">
-        <v>1.019719364687086</v>
+        <v>1.04947834452349</v>
       </c>
       <c r="E16">
-        <v>1.017090506484547</v>
+        <v>1.057225335427057</v>
       </c>
       <c r="F16">
-        <v>1.025445564253528</v>
+        <v>1.06302499249363</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045188449324069</v>
+        <v>1.039681449007241</v>
       </c>
       <c r="J16">
-        <v>1.024983183023635</v>
+        <v>1.050446457743718</v>
       </c>
       <c r="K16">
-        <v>1.033705819500757</v>
+        <v>1.052868500172403</v>
       </c>
       <c r="L16">
-        <v>1.03112210141203</v>
+        <v>1.060588872707808</v>
       </c>
       <c r="M16">
-        <v>1.039334727962401</v>
+        <v>1.066368881414793</v>
       </c>
       <c r="N16">
-        <v>1.026438776710743</v>
+        <v>1.051938212201606</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9987878371509876</v>
+        <v>1.044588130325335</v>
       </c>
       <c r="D17">
-        <v>1.021229332381029</v>
+        <v>1.049780856328345</v>
       </c>
       <c r="E17">
-        <v>1.018913922041355</v>
+        <v>1.057602500731901</v>
       </c>
       <c r="F17">
-        <v>1.02722415713705</v>
+        <v>1.063390471371668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045702925166902</v>
+        <v>1.039755216701104</v>
       </c>
       <c r="J17">
-        <v>1.026292676817308</v>
+        <v>1.050712607614276</v>
       </c>
       <c r="K17">
-        <v>1.034875099036812</v>
+        <v>1.053099363249481</v>
       </c>
       <c r="L17">
-        <v>1.032598254355669</v>
+        <v>1.060894745102395</v>
       </c>
       <c r="M17">
-        <v>1.040771111915143</v>
+        <v>1.066663554461454</v>
       </c>
       <c r="N17">
-        <v>1.027750130135804</v>
+        <v>1.052204740035509</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9999868138564003</v>
+        <v>1.044822996865787</v>
       </c>
       <c r="D18">
-        <v>1.022103616018565</v>
+        <v>1.049957343518313</v>
       </c>
       <c r="E18">
-        <v>1.019969890746796</v>
+        <v>1.057822595173935</v>
       </c>
       <c r="F18">
-        <v>1.028254129862302</v>
+        <v>1.063603731866333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045999549680449</v>
+        <v>1.039798104387739</v>
       </c>
       <c r="J18">
-        <v>1.027050319357285</v>
+        <v>1.050867844170949</v>
       </c>
       <c r="K18">
-        <v>1.035551416243637</v>
+        <v>1.053233980143864</v>
       </c>
       <c r="L18">
-        <v>1.033452596723106</v>
+        <v>1.061073181781476</v>
       </c>
       <c r="M18">
-        <v>1.041602353325632</v>
+        <v>1.066835440358961</v>
       </c>
       <c r="N18">
-        <v>1.02850884861509</v>
+        <v>1.052360197045898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000394036278831</v>
+        <v>1.044903091492812</v>
       </c>
       <c r="D19">
-        <v>1.022400644762002</v>
+        <v>1.050017527361058</v>
       </c>
       <c r="E19">
-        <v>1.020328679564893</v>
+        <v>1.057897658674267</v>
       </c>
       <c r="F19">
-        <v>1.028604079029593</v>
+        <v>1.063676462204244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046100110170933</v>
+        <v>1.039812704262513</v>
       </c>
       <c r="J19">
-        <v>1.027307625427309</v>
+        <v>1.05092077509891</v>
       </c>
       <c r="K19">
-        <v>1.035781068432564</v>
+        <v>1.05327987394114</v>
       </c>
       <c r="L19">
-        <v>1.033742789962363</v>
+        <v>1.06113402854572</v>
       </c>
       <c r="M19">
-        <v>1.041884685300382</v>
+        <v>1.066894050354604</v>
       </c>
       <c r="N19">
-        <v>1.028766520089247</v>
+        <v>1.052413203141848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985665300036699</v>
+        <v>1.044544933713576</v>
       </c>
       <c r="D20">
-        <v>1.021067998517794</v>
+        <v>1.049748395821791</v>
       </c>
       <c r="E20">
-        <v>1.018719077492109</v>
+        <v>1.057562024082523</v>
       </c>
       <c r="F20">
-        <v>1.027034106089986</v>
+        <v>1.063351250369815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045648086195531</v>
+        <v>1.039747316578933</v>
       </c>
       <c r="J20">
-        <v>1.026152821568792</v>
+        <v>1.050684052677324</v>
       </c>
       <c r="K20">
-        <v>1.034750239480555</v>
+        <v>1.053074598126861</v>
       </c>
       <c r="L20">
-        <v>1.032440571223646</v>
+        <v>1.060861925143704</v>
       </c>
       <c r="M20">
-        <v>1.040617685571893</v>
+        <v>1.066631937988675</v>
       </c>
       <c r="N20">
-        <v>1.027610076276793</v>
+        <v>1.052176144547271</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9925106465655511</v>
+        <v>1.043381306542389</v>
       </c>
       <c r="D21">
-        <v>1.016658385125695</v>
+        <v>1.048873862525708</v>
       </c>
       <c r="E21">
-        <v>1.013395291973168</v>
+        <v>1.05647202461577</v>
       </c>
       <c r="F21">
-        <v>1.021840967516177</v>
+        <v>1.062294931376777</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044137368145048</v>
+        <v>1.039533093150562</v>
       </c>
       <c r="J21">
-        <v>1.022324866503558</v>
+        <v>1.049914397832442</v>
       </c>
       <c r="K21">
-        <v>1.03133088580042</v>
+        <v>1.052406739015969</v>
       </c>
       <c r="L21">
-        <v>1.028127254039051</v>
+        <v>1.059977603802178</v>
       </c>
       <c r="M21">
-        <v>1.036420042915901</v>
+        <v>1.065779882450973</v>
       </c>
       <c r="N21">
-        <v>1.023776685076294</v>
+        <v>1.051405396704229</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9886106456824908</v>
+        <v>1.042650286852994</v>
       </c>
       <c r="D22">
-        <v>1.013824038637126</v>
+        <v>1.048324351144206</v>
       </c>
       <c r="E22">
-        <v>1.009974868985717</v>
+        <v>1.055787608963607</v>
       </c>
       <c r="F22">
-        <v>1.018504228685575</v>
+        <v>1.061631535368729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043154871712488</v>
+        <v>1.039397146029917</v>
       </c>
       <c r="J22">
-        <v>1.019858998028003</v>
+        <v>1.04943045247912</v>
       </c>
       <c r="K22">
-        <v>1.029126524505352</v>
+        <v>1.051986459696608</v>
       </c>
       <c r="L22">
-        <v>1.025351278262161</v>
+        <v>1.059421840075926</v>
       </c>
       <c r="M22">
-        <v>1.033717814953556</v>
+        <v>1.065244240250655</v>
       </c>
       <c r="N22">
-        <v>1.021307314784665</v>
+        <v>1.050920764092995</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9906871848091966</v>
+        <v>1.043037757306455</v>
       </c>
       <c r="D23">
-        <v>1.015332628562902</v>
+        <v>1.048615624702834</v>
       </c>
       <c r="E23">
-        <v>1.011795270759639</v>
+        <v>1.056150344043047</v>
       </c>
       <c r="F23">
-        <v>1.020280111375913</v>
+        <v>1.061983142351601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043678880806356</v>
+        <v>1.039469333124131</v>
       </c>
       <c r="J23">
-        <v>1.021171981878175</v>
+        <v>1.049687003949938</v>
       </c>
       <c r="K23">
-        <v>1.03030041848407</v>
+        <v>1.052209292511233</v>
       </c>
       <c r="L23">
-        <v>1.026829141829504</v>
+        <v>1.059716437523929</v>
       </c>
       <c r="M23">
-        <v>1.035156478857955</v>
+        <v>1.065528186541913</v>
       </c>
       <c r="N23">
-        <v>1.022622163222506</v>
+        <v>1.051177679896329</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9986665586924038</v>
+        <v>1.044564452198631</v>
       </c>
       <c r="D24">
-        <v>1.021140918255456</v>
+        <v>1.049763063212687</v>
       </c>
       <c r="E24">
-        <v>1.018807142790456</v>
+        <v>1.057580313428222</v>
       </c>
       <c r="F24">
-        <v>1.027120004954829</v>
+        <v>1.063368972396386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045672876244852</v>
+        <v>1.039750886735948</v>
       </c>
       <c r="J24">
-        <v>1.026216035144061</v>
+        <v>1.050696955437077</v>
       </c>
       <c r="K24">
-        <v>1.034806675733581</v>
+        <v>1.053085788548452</v>
       </c>
       <c r="L24">
-        <v>1.032511842023403</v>
+        <v>1.060876754988518</v>
       </c>
       <c r="M24">
-        <v>1.04068703261819</v>
+        <v>1.066646224086845</v>
       </c>
       <c r="N24">
-        <v>1.02767337962259</v>
+        <v>1.052189065630423</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007553320912798</v>
+        <v>1.046338689776567</v>
       </c>
       <c r="D25">
-        <v>1.027629483552837</v>
+        <v>1.051096055936068</v>
       </c>
       <c r="E25">
-        <v>1.026647953169625</v>
+        <v>1.059243644370941</v>
       </c>
       <c r="F25">
-        <v>1.034766977452333</v>
+        <v>1.064980397143573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047851674631779</v>
+        <v>1.040072130019935</v>
       </c>
       <c r="J25">
-        <v>1.031829132373424</v>
+        <v>1.051868782252273</v>
       </c>
       <c r="K25">
-        <v>1.039813510439124</v>
+        <v>1.054101277445917</v>
       </c>
       <c r="L25">
-        <v>1.038846213120488</v>
+        <v>1.06222427485796</v>
       </c>
       <c r="M25">
-        <v>1.046848531756078</v>
+        <v>1.067943958782371</v>
       </c>
       <c r="N25">
-        <v>1.03329444809385</v>
+        <v>1.053362556574107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047755892524305</v>
+        <v>1.014370064372729</v>
       </c>
       <c r="D2">
-        <v>1.0521603800662</v>
+        <v>1.032619439167118</v>
       </c>
       <c r="E2">
-        <v>1.060573447651939</v>
+        <v>1.032685338140314</v>
       </c>
       <c r="F2">
-        <v>1.066268244441687</v>
+        <v>1.040653420260792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040323915334692</v>
+        <v>1.049487508170597</v>
       </c>
       <c r="J2">
-        <v>1.052803269752584</v>
+        <v>1.036129302855188</v>
       </c>
       <c r="K2">
-        <v>1.05490988118869</v>
+        <v>1.043642295105252</v>
       </c>
       <c r="L2">
-        <v>1.0632998589796</v>
+        <v>1.043707347197018</v>
       </c>
       <c r="M2">
-        <v>1.068979250086863</v>
+        <v>1.051574016319743</v>
       </c>
       <c r="N2">
-        <v>1.054298371153855</v>
+        <v>1.037600725310954</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048786105183069</v>
+        <v>1.019175423610096</v>
       </c>
       <c r="D3">
-        <v>1.052933811906198</v>
+        <v>1.036143048971389</v>
       </c>
       <c r="E3">
-        <v>1.06154080503325</v>
+        <v>1.036953544968381</v>
       </c>
       <c r="F3">
-        <v>1.067204813968297</v>
+        <v>1.044813727453618</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040504152781486</v>
+        <v>1.050619265968809</v>
       </c>
       <c r="J3">
-        <v>1.053481687299104</v>
+        <v>1.039156654725104</v>
       </c>
       <c r="K3">
-        <v>1.055496204448358</v>
+        <v>1.04633345090627</v>
       </c>
       <c r="L3">
-        <v>1.064081282271395</v>
+        <v>1.047134462100511</v>
       </c>
       <c r="M3">
-        <v>1.069731077108201</v>
+        <v>1.054903603594408</v>
       </c>
       <c r="N3">
-        <v>1.054977752131107</v>
+        <v>1.040632376367747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049453273958411</v>
+        <v>1.022222067913576</v>
       </c>
       <c r="D4">
-        <v>1.05343456307037</v>
+        <v>1.038379410724456</v>
       </c>
       <c r="E4">
-        <v>1.062167578651376</v>
+        <v>1.039664981557902</v>
       </c>
       <c r="F4">
-        <v>1.067811515222576</v>
+        <v>1.047456003228127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040619581662674</v>
+        <v>1.051326624826561</v>
       </c>
       <c r="J4">
-        <v>1.05392061727131</v>
+        <v>1.041073920302545</v>
       </c>
       <c r="K4">
-        <v>1.055875222631369</v>
+        <v>1.048035686836356</v>
       </c>
       <c r="L4">
-        <v>1.064587120909269</v>
+        <v>1.049307141668044</v>
       </c>
       <c r="M4">
-        <v>1.070217607183708</v>
+        <v>1.057013524110652</v>
       </c>
       <c r="N4">
-        <v>1.05541730543422</v>
+        <v>1.042552364682222</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04973388334357</v>
+        <v>1.023488411200844</v>
       </c>
       <c r="D5">
-        <v>1.053645146899111</v>
+        <v>1.039309464203461</v>
       </c>
       <c r="E5">
-        <v>1.062431271615628</v>
+        <v>1.040793235179266</v>
       </c>
       <c r="F5">
-        <v>1.068066733636945</v>
+        <v>1.048555321209385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040667821000523</v>
+        <v>1.051618154227608</v>
       </c>
       <c r="J5">
-        <v>1.05410513032445</v>
+        <v>1.041870293059661</v>
       </c>
       <c r="K5">
-        <v>1.056034471934684</v>
+        <v>1.048742220851368</v>
       </c>
       <c r="L5">
-        <v>1.064799823773029</v>
+        <v>1.050210142761208</v>
       </c>
       <c r="M5">
-        <v>1.070422154894644</v>
+        <v>1.057890210756278</v>
       </c>
       <c r="N5">
-        <v>1.055602080517059</v>
+        <v>1.043349868379999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049781006596055</v>
+        <v>1.023700203136813</v>
       </c>
       <c r="D6">
-        <v>1.053680508806749</v>
+        <v>1.039465040731368</v>
       </c>
       <c r="E6">
-        <v>1.062475558365732</v>
+        <v>1.040982003696883</v>
       </c>
       <c r="F6">
-        <v>1.068109595351838</v>
+        <v>1.048739238989465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040675903756934</v>
+        <v>1.051666764303741</v>
       </c>
       <c r="J6">
-        <v>1.054136110087102</v>
+        <v>1.042003450970287</v>
       </c>
       <c r="K6">
-        <v>1.056061205294819</v>
+        <v>1.048860326094466</v>
       </c>
       <c r="L6">
-        <v>1.064835540326022</v>
+        <v>1.050361161113865</v>
       </c>
       <c r="M6">
-        <v>1.070456499941387</v>
+        <v>1.058036814482215</v>
       </c>
       <c r="N6">
-        <v>1.055633104274528</v>
+        <v>1.043483215390132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04945702295825</v>
+        <v>1.022239044981217</v>
       </c>
       <c r="D7">
-        <v>1.053437376635902</v>
+        <v>1.038391877447133</v>
       </c>
       <c r="E7">
-        <v>1.062171101355601</v>
+        <v>1.039680102502978</v>
       </c>
       <c r="F7">
-        <v>1.067814924831516</v>
+        <v>1.047470737008192</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040620227367195</v>
+        <v>1.051330543050037</v>
       </c>
       <c r="J7">
-        <v>1.053923082796217</v>
+        <v>1.041084598960859</v>
       </c>
       <c r="K7">
-        <v>1.055877350882814</v>
+        <v>1.048045162919098</v>
       </c>
       <c r="L7">
-        <v>1.064589962866682</v>
+        <v>1.049319247995223</v>
       </c>
       <c r="M7">
-        <v>1.070220340320301</v>
+        <v>1.057025278567677</v>
       </c>
       <c r="N7">
-        <v>1.055419774460455</v>
+        <v>1.042563058505456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04810394300343</v>
+        <v>1.01600739308779</v>
       </c>
       <c r="D8">
-        <v>1.052421704432181</v>
+        <v>1.033819505553632</v>
       </c>
       <c r="E8">
-        <v>1.06090019838156</v>
+        <v>1.034138493343048</v>
       </c>
       <c r="F8">
-        <v>1.066584621397005</v>
+        <v>1.042069963093879</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040385074959277</v>
+        <v>1.049875241801157</v>
       </c>
       <c r="J8">
-        <v>1.053032554349676</v>
+        <v>1.037161229834005</v>
       </c>
       <c r="K8">
-        <v>1.055108108433642</v>
+        <v>1.044560057265001</v>
       </c>
       <c r="L8">
-        <v>1.063563901544337</v>
+        <v>1.044875070955349</v>
       </c>
       <c r="M8">
-        <v>1.06923332309236</v>
+        <v>1.052708699579691</v>
       </c>
       <c r="N8">
-        <v>1.054527981361375</v>
+        <v>1.038634117744425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045723899110219</v>
+        <v>1.004519418322235</v>
       </c>
       <c r="D9">
-        <v>1.050634225068721</v>
+        <v>1.025412097914917</v>
       </c>
       <c r="E9">
-        <v>1.058667098561658</v>
+        <v>1.023967359789864</v>
       </c>
       <c r="F9">
-        <v>1.064421913683467</v>
+        <v>1.032152888637828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039961560091639</v>
+        <v>1.04711331564387</v>
       </c>
       <c r="J9">
-        <v>1.051462968483635</v>
+        <v>1.029913587505806</v>
       </c>
       <c r="K9">
-        <v>1.053749791674845</v>
+        <v>1.038105909945447</v>
       </c>
       <c r="L9">
-        <v>1.061757464097659</v>
+        <v>1.036683193343303</v>
       </c>
       <c r="M9">
-        <v>1.067494480291669</v>
+        <v>1.044744990525441</v>
       </c>
       <c r="N9">
-        <v>1.05295616650337</v>
+        <v>1.031376182932803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044140097660557</v>
+        <v>0.9964803927079202</v>
       </c>
       <c r="D10">
-        <v>1.04944416283365</v>
+        <v>1.019547838391283</v>
       </c>
       <c r="E10">
-        <v>1.057182725712136</v>
+        <v>1.016883399572237</v>
       </c>
       <c r="F10">
-        <v>1.062983701098078</v>
+        <v>1.025243543466677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039673093646718</v>
+        <v>1.045129835585798</v>
       </c>
       <c r="J10">
-        <v>1.050416379700191</v>
+        <v>1.024834352162906</v>
       </c>
       <c r="K10">
-        <v>1.05284240480785</v>
+        <v>1.033572897852681</v>
       </c>
       <c r="L10">
-        <v>1.060554309786541</v>
+        <v>1.03095436636739</v>
       </c>
       <c r="M10">
-        <v>1.06633558164056</v>
+        <v>1.039171500643341</v>
       </c>
       <c r="N10">
-        <v>1.051908091443809</v>
+        <v>1.026289734493121</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043454987030966</v>
+        <v>0.992899580657489</v>
       </c>
       <c r="D11">
-        <v>1.048929244055632</v>
+        <v>1.016941283851678</v>
       </c>
       <c r="E11">
-        <v>1.056541022690256</v>
+        <v>1.013736746807936</v>
       </c>
       <c r="F11">
-        <v>1.062361804957284</v>
+        <v>1.022174059263197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039546737531743</v>
+        <v>1.044234953950125</v>
       </c>
       <c r="J11">
-        <v>1.04996315720868</v>
+        <v>1.02257075800426</v>
       </c>
       <c r="K11">
-        <v>1.052449069349509</v>
+        <v>1.03155063133779</v>
       </c>
       <c r="L11">
-        <v>1.060033611105493</v>
+        <v>1.028404175896301</v>
       </c>
       <c r="M11">
-        <v>1.065833855381651</v>
+        <v>1.036689579913846</v>
       </c>
       <c r="N11">
-        <v>1.051454225324373</v>
+        <v>1.024022925771131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043200609914138</v>
+        <v>0.991553617046547</v>
       </c>
       <c r="D12">
-        <v>1.048738039383675</v>
+        <v>1.015962453830309</v>
       </c>
       <c r="E12">
-        <v>1.056302822864991</v>
+        <v>1.012555360712113</v>
       </c>
       <c r="F12">
-        <v>1.062130935214009</v>
+        <v>1.021021600572028</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039499586062644</v>
+        <v>1.043896932183516</v>
       </c>
       <c r="J12">
-        <v>1.049794804467278</v>
+        <v>1.021719795132869</v>
       </c>
       <c r="K12">
-        <v>1.052302903066845</v>
+        <v>1.030790097562629</v>
       </c>
       <c r="L12">
-        <v>1.059840242569095</v>
+        <v>1.027445909132481</v>
       </c>
       <c r="M12">
-        <v>1.065647505477849</v>
+        <v>1.035756845475459</v>
       </c>
       <c r="N12">
-        <v>1.051285633502769</v>
+        <v>1.023170754434856</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043255169979677</v>
+        <v>0.9918430648671421</v>
       </c>
       <c r="D13">
-        <v>1.048779050743415</v>
+        <v>1.016172906573354</v>
       </c>
       <c r="E13">
-        <v>1.056353910404692</v>
+        <v>1.012809352597312</v>
       </c>
       <c r="F13">
-        <v>1.062180451650021</v>
+        <v>1.021269375006479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039509710034331</v>
+        <v>1.043969697002171</v>
       </c>
       <c r="J13">
-        <v>1.049830916950104</v>
+        <v>1.021902798058854</v>
       </c>
       <c r="K13">
-        <v>1.05233425911357</v>
+        <v>1.030953666297676</v>
       </c>
       <c r="L13">
-        <v>1.05988171885669</v>
+        <v>1.027651968380511</v>
       </c>
       <c r="M13">
-        <v>1.065687477536785</v>
+        <v>1.035957419702416</v>
       </c>
       <c r="N13">
-        <v>1.051321797269462</v>
+        <v>1.023354017245987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043433958025729</v>
+        <v>0.9927886524132811</v>
       </c>
       <c r="D14">
-        <v>1.048913437806081</v>
+        <v>1.016860593696259</v>
       </c>
       <c r="E14">
-        <v>1.056521329804955</v>
+        <v>1.013639353733066</v>
       </c>
       <c r="F14">
-        <v>1.062342718530661</v>
+        <v>1.022079051781843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039542844404725</v>
+        <v>1.044207128944211</v>
       </c>
       <c r="J14">
-        <v>1.049949241231483</v>
+        <v>1.022500627553605</v>
       </c>
       <c r="K14">
-        <v>1.052436988499726</v>
+        <v>1.031487959279981</v>
       </c>
       <c r="L14">
-        <v>1.060017626337654</v>
+        <v>1.028325193298856</v>
       </c>
       <c r="M14">
-        <v>1.065818451358634</v>
+        <v>1.03661270414231</v>
       </c>
       <c r="N14">
-        <v>1.051440289584892</v>
+        <v>1.023952695727193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043544128966275</v>
+        <v>0.9933691267951511</v>
       </c>
       <c r="D15">
-        <v>1.048996245973292</v>
+        <v>1.017282874104477</v>
       </c>
       <c r="E15">
-        <v>1.056624503288999</v>
+        <v>1.014149057045353</v>
       </c>
       <c r="F15">
-        <v>1.062442713792227</v>
+        <v>1.022576268427799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03956323081717</v>
+        <v>1.044352666946294</v>
       </c>
       <c r="J15">
-        <v>1.050022143987704</v>
+        <v>1.022867607435012</v>
       </c>
       <c r="K15">
-        <v>1.052500275009989</v>
+        <v>1.031815898885326</v>
       </c>
       <c r="L15">
-        <v>1.060101369030163</v>
+        <v>1.028738512697444</v>
       </c>
       <c r="M15">
-        <v>1.065899150476992</v>
+        <v>1.037014993567402</v>
       </c>
       <c r="N15">
-        <v>1.05151329587139</v>
+        <v>1.024320196762124</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044185580683685</v>
+        <v>0.9967158611673316</v>
       </c>
       <c r="D16">
-        <v>1.04947834452349</v>
+        <v>1.019719364687087</v>
       </c>
       <c r="E16">
-        <v>1.057225335427057</v>
+        <v>1.017090506484547</v>
       </c>
       <c r="F16">
-        <v>1.06302499249363</v>
+        <v>1.025445564253529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039681449007241</v>
+        <v>1.04518844932407</v>
       </c>
       <c r="J16">
-        <v>1.050446457743718</v>
+        <v>1.024983183023636</v>
       </c>
       <c r="K16">
-        <v>1.052868500172403</v>
+        <v>1.033705819500758</v>
       </c>
       <c r="L16">
-        <v>1.060588872707808</v>
+        <v>1.031122101412031</v>
       </c>
       <c r="M16">
-        <v>1.066368881414793</v>
+        <v>1.039334727962402</v>
       </c>
       <c r="N16">
-        <v>1.051938212201606</v>
+        <v>1.026438776710744</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044588130325335</v>
+        <v>0.9987878371509874</v>
       </c>
       <c r="D17">
-        <v>1.049780856328345</v>
+        <v>1.021229332381028</v>
       </c>
       <c r="E17">
-        <v>1.057602500731901</v>
+        <v>1.018913922041355</v>
       </c>
       <c r="F17">
-        <v>1.063390471371668</v>
+        <v>1.02722415713705</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039755216701104</v>
+        <v>1.045702925166902</v>
       </c>
       <c r="J17">
-        <v>1.050712607614276</v>
+        <v>1.026292676817308</v>
       </c>
       <c r="K17">
-        <v>1.053099363249481</v>
+        <v>1.034875099036811</v>
       </c>
       <c r="L17">
-        <v>1.060894745102395</v>
+        <v>1.032598254355669</v>
       </c>
       <c r="M17">
-        <v>1.066663554461454</v>
+        <v>1.040771111915143</v>
       </c>
       <c r="N17">
-        <v>1.052204740035509</v>
+        <v>1.027750130135804</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044822996865787</v>
+        <v>0.9999868138563995</v>
       </c>
       <c r="D18">
-        <v>1.049957343518313</v>
+        <v>1.022103616018565</v>
       </c>
       <c r="E18">
-        <v>1.057822595173935</v>
+        <v>1.019969890746795</v>
       </c>
       <c r="F18">
-        <v>1.063603731866333</v>
+        <v>1.028254129862302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039798104387739</v>
+        <v>1.045999549680448</v>
       </c>
       <c r="J18">
-        <v>1.050867844170949</v>
+        <v>1.027050319357284</v>
       </c>
       <c r="K18">
-        <v>1.053233980143864</v>
+        <v>1.035551416243636</v>
       </c>
       <c r="L18">
-        <v>1.061073181781476</v>
+        <v>1.033452596723105</v>
       </c>
       <c r="M18">
-        <v>1.066835440358961</v>
+        <v>1.041602353325632</v>
       </c>
       <c r="N18">
-        <v>1.052360197045898</v>
+        <v>1.028508848615089</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044903091492812</v>
+        <v>1.00039403627883</v>
       </c>
       <c r="D19">
-        <v>1.050017527361058</v>
+        <v>1.022400644762002</v>
       </c>
       <c r="E19">
-        <v>1.057897658674267</v>
+        <v>1.020328679564893</v>
       </c>
       <c r="F19">
-        <v>1.063676462204244</v>
+        <v>1.028604079029593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039812704262513</v>
+        <v>1.046100110170933</v>
       </c>
       <c r="J19">
-        <v>1.05092077509891</v>
+        <v>1.027307625427308</v>
       </c>
       <c r="K19">
-        <v>1.05327987394114</v>
+        <v>1.035781068432564</v>
       </c>
       <c r="L19">
-        <v>1.06113402854572</v>
+        <v>1.033742789962363</v>
       </c>
       <c r="M19">
-        <v>1.066894050354604</v>
+        <v>1.041884685300382</v>
       </c>
       <c r="N19">
-        <v>1.052413203141848</v>
+        <v>1.028766520089247</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044544933713576</v>
+        <v>0.9985665300036706</v>
       </c>
       <c r="D20">
-        <v>1.049748395821791</v>
+        <v>1.021067998517795</v>
       </c>
       <c r="E20">
-        <v>1.057562024082523</v>
+        <v>1.01871907749211</v>
       </c>
       <c r="F20">
-        <v>1.063351250369815</v>
+        <v>1.027034106089987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039747316578933</v>
+        <v>1.045648086195531</v>
       </c>
       <c r="J20">
-        <v>1.050684052677324</v>
+        <v>1.026152821568793</v>
       </c>
       <c r="K20">
-        <v>1.053074598126861</v>
+        <v>1.034750239480555</v>
       </c>
       <c r="L20">
-        <v>1.060861925143704</v>
+        <v>1.032440571223647</v>
       </c>
       <c r="M20">
-        <v>1.066631937988675</v>
+        <v>1.040617685571894</v>
       </c>
       <c r="N20">
-        <v>1.052176144547271</v>
+        <v>1.027610076276794</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043381306542389</v>
+        <v>0.9925106465655511</v>
       </c>
       <c r="D21">
-        <v>1.048873862525708</v>
+        <v>1.016658385125695</v>
       </c>
       <c r="E21">
-        <v>1.05647202461577</v>
+        <v>1.013395291973168</v>
       </c>
       <c r="F21">
-        <v>1.062294931376777</v>
+        <v>1.021840967516177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039533093150562</v>
+        <v>1.044137368145048</v>
       </c>
       <c r="J21">
-        <v>1.049914397832442</v>
+        <v>1.022324866503558</v>
       </c>
       <c r="K21">
-        <v>1.052406739015969</v>
+        <v>1.03133088580042</v>
       </c>
       <c r="L21">
-        <v>1.059977603802178</v>
+        <v>1.028127254039051</v>
       </c>
       <c r="M21">
-        <v>1.065779882450973</v>
+        <v>1.036420042915901</v>
       </c>
       <c r="N21">
-        <v>1.051405396704229</v>
+        <v>1.023776685076294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042650286852994</v>
+        <v>0.98861064568249</v>
       </c>
       <c r="D22">
-        <v>1.048324351144206</v>
+        <v>1.013824038637126</v>
       </c>
       <c r="E22">
-        <v>1.055787608963607</v>
+        <v>1.009974868985717</v>
       </c>
       <c r="F22">
-        <v>1.061631535368729</v>
+        <v>1.018504228685574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039397146029917</v>
+        <v>1.043154871712488</v>
       </c>
       <c r="J22">
-        <v>1.04943045247912</v>
+        <v>1.019858998028002</v>
       </c>
       <c r="K22">
-        <v>1.051986459696608</v>
+        <v>1.029126524505352</v>
       </c>
       <c r="L22">
-        <v>1.059421840075926</v>
+        <v>1.02535127826216</v>
       </c>
       <c r="M22">
-        <v>1.065244240250655</v>
+        <v>1.033717814953555</v>
       </c>
       <c r="N22">
-        <v>1.050920764092995</v>
+        <v>1.021307314784664</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043037757306455</v>
+        <v>0.9906871848091963</v>
       </c>
       <c r="D23">
-        <v>1.048615624702834</v>
+        <v>1.015332628562901</v>
       </c>
       <c r="E23">
-        <v>1.056150344043047</v>
+        <v>1.011795270759638</v>
       </c>
       <c r="F23">
-        <v>1.061983142351601</v>
+        <v>1.020280111375912</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039469333124131</v>
+        <v>1.043678880806355</v>
       </c>
       <c r="J23">
-        <v>1.049687003949938</v>
+        <v>1.021171981878175</v>
       </c>
       <c r="K23">
-        <v>1.052209292511233</v>
+        <v>1.030300418484069</v>
       </c>
       <c r="L23">
-        <v>1.059716437523929</v>
+        <v>1.026829141829504</v>
       </c>
       <c r="M23">
-        <v>1.065528186541913</v>
+        <v>1.035156478857954</v>
       </c>
       <c r="N23">
-        <v>1.051177679896329</v>
+        <v>1.022622163222505</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044564452198631</v>
+        <v>0.9986665586924036</v>
       </c>
       <c r="D24">
-        <v>1.049763063212687</v>
+        <v>1.021140918255456</v>
       </c>
       <c r="E24">
-        <v>1.057580313428222</v>
+        <v>1.018807142790456</v>
       </c>
       <c r="F24">
-        <v>1.063368972396386</v>
+        <v>1.027120004954829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039750886735948</v>
+        <v>1.045672876244852</v>
       </c>
       <c r="J24">
-        <v>1.050696955437077</v>
+        <v>1.02621603514406</v>
       </c>
       <c r="K24">
-        <v>1.053085788548452</v>
+        <v>1.034806675733581</v>
       </c>
       <c r="L24">
-        <v>1.060876754988518</v>
+        <v>1.032511842023403</v>
       </c>
       <c r="M24">
-        <v>1.066646224086845</v>
+        <v>1.04068703261819</v>
       </c>
       <c r="N24">
-        <v>1.052189065630423</v>
+        <v>1.027673379622589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046338689776567</v>
+        <v>1.007553320912799</v>
       </c>
       <c r="D25">
-        <v>1.051096055936068</v>
+        <v>1.027629483552838</v>
       </c>
       <c r="E25">
-        <v>1.059243644370941</v>
+        <v>1.026647953169626</v>
       </c>
       <c r="F25">
-        <v>1.064980397143573</v>
+        <v>1.034766977452334</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040072130019935</v>
+        <v>1.047851674631779</v>
       </c>
       <c r="J25">
-        <v>1.051868782252273</v>
+        <v>1.031829132373425</v>
       </c>
       <c r="K25">
-        <v>1.054101277445917</v>
+        <v>1.039813510439125</v>
       </c>
       <c r="L25">
-        <v>1.06222427485796</v>
+        <v>1.038846213120489</v>
       </c>
       <c r="M25">
-        <v>1.067943958782371</v>
+        <v>1.046848531756079</v>
       </c>
       <c r="N25">
-        <v>1.053362556574107</v>
+        <v>1.033294448093851</v>
       </c>
     </row>
   </sheetData>
